--- a/SAO_SEBASTIAO_DO_CAI.xlsx
+++ b/SAO_SEBASTIAO_DO_CAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39051E5F-E565-4D8D-A10B-081E4E0E2E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDE46C9-5291-4323-8433-4DCB3AEF0724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7A21B9C0-4D82-4996-A8AD-7C7AB7CFA5A0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C258BD78-0AB8-4030-B7E7-F393AD070582}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1246,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FDD52F-783D-4F1F-BE27-9EF8085DA1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDB459C-3F6C-4F2D-B843-96CD8CC537ED}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B139CFF7-E225-4CD3-9D0A-6CA57CE9B035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289E6392-542B-49D3-85B3-F116F69BCAA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16086027-D306-4344-B94B-ADF6EB8A9872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07301444-2EE8-441E-8756-83D65B9C28CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAEA6A9-9DCA-F10E-9492-E014125FCC07}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3CF5C4-BE22-99A9-FCD5-734173C5D559}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C06B714-4833-D71C-77FB-C4868E2FAA7A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9604089-72C6-7AF0-22DC-EE6313243ED0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CD9491-8707-9D46-54E9-35B1E6F25228}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFC5E77-4666-708D-1ED2-D6A115648CD6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90988D7C-BD90-0462-66F6-C2B5A8F1BFA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698FB110-73AF-D8EA-7DB0-F5AC754ABB1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BF3080-B5C5-D876-208B-C67BB66CB5EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E64085D-BDFF-9E4B-562C-60228D7776F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF6097D-F55D-41EB-9846-844D042D9F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D93463-437A-4451-8737-70AB77D611DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38211E9-8634-4849-9279-7091B3D64F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6760C9BF-6AC6-4B21-8BAD-0F4071D254F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1623,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC9DD99-A748-4624-BC89-52BC40108E46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC74F679-30F3-4973-A12D-FF6B55B2EDC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117CC309-1405-479E-8B88-A2203073933B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31876B65-531F-4BB2-B622-15A814D05C27}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_SEBASTIAO_DO_CAI.xlsx
+++ b/SAO_SEBASTIAO_DO_CAI.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDE46C9-5291-4323-8433-4DCB3AEF0724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB6BD0C-F4C2-42AB-8C95-0A148E620330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="302">
   <si>
     <t>COMARCA</t>
   </si>
@@ -931,15 +930,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO SEBASTIÃO DO CAÍ</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,27 +1186,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C258BD78-0AB8-4030-B7E7-F393AD070582}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{76B2889E-C8A4-471E-BD8A-EFAC08668E06}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1221,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDB459C-3F6C-4F2D-B843-96CD8CC537ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B82A46-1166-4BE2-8FFB-6B7291C42312}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289E6392-542B-49D3-85B3-F116F69BCAA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDBEC4F-0F48-4C3D-876F-5CE71B9A9F0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07301444-2EE8-441E-8756-83D65B9C28CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925B742C-3EEB-4627-A48B-7D394EBBE273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1344,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3CF5C4-BE22-99A9-FCD5-734173C5D559}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210DE4CC-0A82-E363-4AAD-5AE7574D3244}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1393,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9604089-72C6-7AF0-22DC-EE6313243ED0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE9DA43-10EA-3DE9-D5BB-CA3EB20DE264}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1412,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFC5E77-4666-708D-1ED2-D6A115648CD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F350B154-23D0-8EFE-7327-0D91997C3FD4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1443,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698FB110-73AF-D8EA-7DB0-F5AC754ABB1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67581E2-EEA8-C76D-FF64-CB89568E0E3D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1474,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E64085D-BDFF-9E4B-562C-60228D7776F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D72050-64FB-1F9A-CB7F-C85762ACB009}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1517,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D93463-437A-4451-8737-70AB77D611DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F514411-C22B-4B84-B3B8-9C4DAA2CEA8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1555,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6760C9BF-6AC6-4B21-8BAD-0F4071D254F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189DCB8E-8B00-4A74-BA04-8E099A607E2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1598,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC74F679-30F3-4973-A12D-FF6B55B2EDC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750DF2-63C2-4170-BD72-36CF7E428CC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31876B65-531F-4BB2-B622-15A814D05C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A7710B-E721-4C06-8EEA-0EE9897C19F9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1948,98 +1923,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5539,52 +5514,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="32">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.917735749239519E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_SEBASTIAO_DO_CAI.xlsx
+++ b/SAO_SEBASTIAO_DO_CAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB6BD0C-F4C2-42AB-8C95-0A148E620330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C99A0DC-0325-4438-90EC-34D9EC45413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{76B2889E-C8A4-471E-BD8A-EFAC08668E06}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1D085975-74E6-4338-B946-15288CE10CF9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,10 +1221,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B82A46-1166-4BE2-8FFB-6B7291C42312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFA683-F54B-4C78-AE23-94D61295721F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDBEC4F-0F48-4C3D-876F-5CE71B9A9F0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2119D3B-A8C2-4C7E-B9FC-9E05198161D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925B742C-3EEB-4627-A48B-7D394EBBE273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AC1B55-EED1-4B06-AA6A-F738DAA18BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210DE4CC-0A82-E363-4AAD-5AE7574D3244}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56662C87-70BC-773D-F477-5EF1956A8114}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE9DA43-10EA-3DE9-D5BB-CA3EB20DE264}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1855BFE5-36A2-DA75-8834-C33F411A8873}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F350B154-23D0-8EFE-7327-0D91997C3FD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070DA970-A9CE-B0B1-358E-D78BF8161F9A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67581E2-EEA8-C76D-FF64-CB89568E0E3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56471F4B-E0FD-C18B-C02D-8A7C17F6DA52}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D72050-64FB-1F9A-CB7F-C85762ACB009}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE0DC80-734C-534C-4F43-0A3F6278C979}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1517,7 +1517,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F514411-C22B-4B84-B3B8-9C4DAA2CEA8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EC2C4A-2B2A-4564-8965-690B652B9FB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1555,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189DCB8E-8B00-4A74-BA04-8E099A607E2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E9449E-D71F-4FE0-ABF8-1BE067FFB7C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,50 +1580,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750DF2-63C2-4170-BD72-36CF7E428CC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1911,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A7710B-E721-4C06-8EEA-0EE9897C19F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90A12AE-FEC5-4CDB-8DE5-BD2C47B60978}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
